--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_50_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_50_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.9988595430350187, 2.4968821878929197]</t>
+          <t>[1.9953520176635076, 2.500389713264431]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.33308646907971173, 0.5979479202027602]</t>
+          <t>[0.333010935402164, 0.598023453880308]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>7.757253506213146e-09</v>
+        <v>7.864785489530846e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>7.757253506213146e-09</v>
+        <v>7.864785489530846e-09</v>
       </c>
       <c r="W2" t="n">
         <v>23.39795795795876</v>
